--- a/biology/Histoire de la zoologie et de la botanique/Thomas_de_Grey_(6e_baron_Walsingham)/Thomas_de_Grey_(6e_baron_Walsingham).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_de_Grey_(6e_baron_Walsingham)/Thomas_de_Grey_(6e_baron_Walsingham).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thomas de Grey, 6e baron Walsingham (29 juillet 1843 - 3 décembre 1919), de Merton Hall, Norfolk, est un homme politique britannique et un entomologiste amateur. 
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Thomas de Grey (5e baron Walsingham), et Augusta-Louisa, fille de Robert Frankland-Russell (7e baronnet) [1]. Il est né à Stanhope Street à Mayfair, la maison familiale de Londres. Il fait ses études à Collège d'Eton et au Trinity College, Cambridge. Il siège comme député conservateur de West Norfolk de 1865 à 1870, date à laquelle il succède à son père et entre à la Chambre des lords. De 1874 à 1875, il est Lord-in-waiting (whip du gouvernement) dans le deuxième gouvernement conservateur de Benjamin Disraeli. À partir de 1870, il dirige également le domaine familial à Merton, Norfolk, est administrateur du British Museum et remplit de nombreuses autres fonctions publiques. 
-Il est un lépidoptériste passionné, collectionnant des papillons dès son jeune âge, et s'intéressant particulièrement aux microlépidoptères [2]. Sa collection est l'une des plus importantes jamais réalisées, qui après son achat des collections Zeller, Hofmann et Christoph contenait plus de 260 000 exemplaires. Il en a fait don au Musée d'histoire naturelle de Londres, avec sa bibliothèque de 2 600 livres. 
-Il est élu membre de la Royal Society en 1887 et est membre de la Royal Entomological Society, et en est président à deux reprises. Il s'est marié trois fois, mais n'a laissé aucun héritier, et son demi-frère lui succède comme baron. Il épouse sa troisième épouse, Agnes Dawson, en 1914 [3] Sa fille est Margaret Damer Dawson.   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Thomas de Grey (5e baron Walsingham), et Augusta-Louisa, fille de Robert Frankland-Russell (7e baronnet) . Il est né à Stanhope Street à Mayfair, la maison familiale de Londres. Il fait ses études à Collège d'Eton et au Trinity College, Cambridge. Il siège comme député conservateur de West Norfolk de 1865 à 1870, date à laquelle il succède à son père et entre à la Chambre des lords. De 1874 à 1875, il est Lord-in-waiting (whip du gouvernement) dans le deuxième gouvernement conservateur de Benjamin Disraeli. À partir de 1870, il dirige également le domaine familial à Merton, Norfolk, est administrateur du British Museum et remplit de nombreuses autres fonctions publiques. 
+Il est un lépidoptériste passionné, collectionnant des papillons dès son jeune âge, et s'intéressant particulièrement aux microlépidoptères . Sa collection est l'une des plus importantes jamais réalisées, qui après son achat des collections Zeller, Hofmann et Christoph contenait plus de 260 000 exemplaires. Il en a fait don au Musée d'histoire naturelle de Londres, avec sa bibliothèque de 2 600 livres. 
+Il est élu membre de la Royal Society en 1887 et est membre de la Royal Entomological Society, et en est président à deux reprises. Il s'est marié trois fois, mais n'a laissé aucun héritier, et son demi-frère lui succède comme baron. Il épouse sa troisième épouse, Agnes Dawson, en 1914  Sa fille est Margaret Damer Dawson.   
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Cricket</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est un joueur de cricket de première classe de 1862 à 1866. Enregistré sur les tableaux de bord sous le nom de T de Gray, il dispute 15 matchs, totalisant 380 points avec un score le plus élevé de 62 et détenant 9 captures. Il est principalement associé au Marylebone Cricket Club (MCC) et à l'Université de Cambridge, représentant également les Gentlemen lors d'un match Gentlemen v Players en 1863 [4] et joue pour I Zingari à Sandringham les 17 et 18 juillet 1866 (où le prince de Galles a ouvert pour l'équipe) [5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est un joueur de cricket de première classe de 1862 à 1866. Enregistré sur les tableaux de bord sous le nom de T de Gray, il dispute 15 matchs, totalisant 380 points avec un score le plus élevé de 62 et détenant 9 captures. Il est principalement associé au Marylebone Cricket Club (MCC) et à l'Université de Cambridge, représentant également les Gentlemen lors d'un match Gentlemen v Players en 1863  et joue pour I Zingari à Sandringham les 17 et 18 juillet 1866 (où le prince de Galles a ouvert pour l'équipe) . 
 </t>
         </is>
       </c>
